--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/n1-back/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/condition 3/n1-back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66119077-D824-654C-AAAB-A76250F57699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8159F9DE-F714-5944-BC50-BB06CC2F3141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="500" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -113,19 +107,36 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,11 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +449,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -453,13 +466,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
@@ -467,13 +480,13 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
@@ -481,54 +494,54 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
@@ -536,13 +549,13 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
@@ -550,13 +563,13 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="E9" s="1"/>
@@ -564,13 +577,13 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
@@ -578,13 +591,13 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="1"/>
@@ -592,13 +605,13 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="1"/>
@@ -606,13 +619,13 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -620,13 +633,13 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -634,27 +647,27 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -662,27 +675,27 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="1"/>
@@ -690,13 +703,13 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
         <v>0</v>
       </c>
       <c r="E19" s="1"/>
@@ -704,13 +717,13 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="1"/>
@@ -718,27 +731,27 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="1"/>
@@ -746,13 +759,13 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="1"/>
@@ -760,13 +773,13 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="1"/>
@@ -774,13 +787,13 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="1"/>
@@ -788,27 +801,27 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="1"/>
@@ -816,13 +829,13 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="E28" s="1"/>
@@ -830,27 +843,27 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="1"/>
@@ -858,13 +871,13 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="1"/>
@@ -872,13 +885,13 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="E32" s="1"/>
@@ -886,13 +899,13 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="1"/>
@@ -900,13 +913,13 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="1"/>
@@ -914,13 +927,13 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="1"/>
@@ -928,13 +941,13 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
         <v>0</v>
       </c>
       <c r="E36" s="1"/>
@@ -942,13 +955,13 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="E37" s="1"/>
@@ -956,13 +969,13 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2">
         <v>0</v>
       </c>
       <c r="E38" s="1"/>
@@ -970,13 +983,13 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="E39" s="1"/>
@@ -984,27 +997,27 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="E41" s="1"/>
@@ -1012,41 +1025,41 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="E44" s="1"/>
@@ -1054,13 +1067,13 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="E45" s="1"/>
@@ -1068,13 +1081,13 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="1"/>
@@ -1082,13 +1095,13 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="E47" s="1"/>
@@ -1096,13 +1109,13 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="1"/>
@@ -1110,13 +1123,13 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="E49" s="1"/>
@@ -1124,13 +1137,13 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="E50" s="1"/>
@@ -1138,13 +1151,13 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="E51" s="1"/>
@@ -1152,112 +1165,112 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
+      <c r="B53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="B55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1">
+      <c r="B59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
+      <c r="B60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1">
+      <c r="B61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2">
         <v>0</v>
       </c>
     </row>
